--- a/Excel/TP5/2-4-P-TP5-Excel-Oblig-Nivel II-Ver13-1.xlsx
+++ b/Excel/TP5/2-4-P-TP5-Excel-Oblig-Nivel II-Ver13-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7665" tabRatio="702" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7665" tabRatio="702" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1" sheetId="2" r:id="rId1"/>
@@ -804,12 +804,6 @@
     </r>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
     <t>Aerolinea Nacional</t>
   </si>
   <si>
@@ -817,6 +811,12 @@
   </si>
   <si>
     <t>Si se usan condicionales SI anidados, cuando se quiera quitar o agregar elementos de la tabla de antigüedad habrá que rehacer la fórmula que calcula el adicional por antigüedad.</t>
+  </si>
+  <si>
+    <t>Porque si uso varios condicionales SI anidados, deberé rehacer la fórmula cada vez que los datos cambien en el futuro.</t>
+  </si>
+  <si>
+    <t>Porque no es necesario emplear funciones de bases de datos, además de que me implicaría más trabajo ya que debería definir las condiciones en una tabla aparte.</t>
   </si>
 </sst>
 </file>
@@ -831,11 +831,11 @@
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="170" formatCode="_ [$$-2C0A]\ * #,##0_ ;_ [$$-2C0A]\ * \-#,##0_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="173" formatCode="0\ &quot;Kg.&quot;"/>
-    <numFmt numFmtId="174" formatCode="d\-m\-yy;@"/>
-    <numFmt numFmtId="175" formatCode="0\ &quot;Años&quot;"/>
+    <numFmt numFmtId="171" formatCode="0\ &quot;Kg.&quot;"/>
+    <numFmt numFmtId="172" formatCode="d\-m\-yy;@"/>
+    <numFmt numFmtId="173" formatCode="0\ &quot;Años&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -918,6 +918,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1307,7 +1313,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1494,90 +1500,6 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1586,20 +1508,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1609,35 +1522,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1646,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1657,7 +1543,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1668,7 +1554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1681,6 +1567,181 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1692,57 +1753,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3204,7 +3214,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3520,7 +3529,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6608,8 +6617,8 @@
   </sheetPr>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6631,18 +6640,18 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
@@ -6653,7 +6662,7 @@
       </c>
       <c r="B4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43003</v>
+        <v>43021</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>1</v>
@@ -6668,7 +6677,7 @@
       </c>
       <c r="B5" s="23">
         <f ca="1">NOW()</f>
-        <v>43003.672393634261</v>
+        <v>43021.875563657406</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>2</v>
@@ -6697,22 +6706,22 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="91" t="s">
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -6724,7 +6733,7 @@
       <c r="C9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="91"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="32" t="s">
         <v>9</v>
       </c>
@@ -6749,18 +6758,18 @@
         <v>1330</v>
       </c>
       <c r="B10" s="22" t="str">
-        <f>VLOOKUP(A10,$A$24:$B$37,2,0)</f>
+        <f>VLOOKUP(A10,$A$23:$B$37,2,0)</f>
         <v>Limpieza</v>
       </c>
       <c r="C10" s="22" t="str">
-        <f>VLOOKUP(A10,$A$24:$C$37,3,0)</f>
+        <f>VLOOKUP(A10,$A$23:$C$37,3,0)</f>
         <v>Jabón "Shock"</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
       </c>
       <c r="E10" s="28">
-        <f>VLOOKUP(A10,$A$24:$D$37,4,0)</f>
+        <f>VLOOKUP(A10,$A$23:$D$36,4,0)</f>
         <v>5.4</v>
       </c>
       <c r="F10" s="29">
@@ -6789,18 +6798,18 @@
         <v>1370</v>
       </c>
       <c r="B11" s="22" t="str">
-        <f t="shared" ref="B11:B16" si="0">VLOOKUP(A11,$A$24:$B$37,2,0)</f>
+        <f t="shared" ref="B11:B16" si="0">VLOOKUP(A11,$A$23:$B$37,2,0)</f>
         <v>Carnicería</v>
       </c>
       <c r="C11" s="22" t="str">
-        <f t="shared" ref="C11:C16" si="1">VLOOKUP(A11,$A$24:$C$37,3,0)</f>
+        <f t="shared" ref="C11:C16" si="1">VLOOKUP(A11,$A$23:$C$37,3,0)</f>
         <v>Lomo</v>
       </c>
       <c r="D11" s="8">
         <v>5</v>
       </c>
       <c r="E11" s="28">
-        <f t="shared" ref="E11:E16" si="2">VLOOKUP(A11,$A$24:$D$37,4,0)</f>
+        <f t="shared" ref="E11:E16" si="2">VLOOKUP(A11,$A$23:$D$36,4,0)</f>
         <v>75.400000000000006</v>
       </c>
       <c r="F11" s="29">
@@ -7051,11 +7060,11 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="22">
         <f>ROUNDDOWN(J17/7,0)</f>
         <v>137</v>
@@ -7072,16 +7081,16 @@
       <c r="F20" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="F22" s="90" t="s">
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="F22" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="90"/>
+      <c r="G22" s="137"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -7352,8 +7361,8 @@
   </sheetPr>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -7374,17 +7383,17 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
@@ -7420,22 +7429,22 @@
         <v>112</v>
       </c>
       <c r="B5" s="36" t="str">
-        <f>VLOOKUP(A5,$A$22:$B$36,2,0)</f>
+        <f>VLOOKUP(A5,$A$21:$C$36,2,0)</f>
         <v>Flores, Pedro</v>
       </c>
       <c r="C5" s="36" t="str">
-        <f>HLOOKUP(VLOOKUP(A5,$A$22:$C$36,3,0),$F$21:$J$23,2,0)</f>
+        <f>HLOOKUP(VLOOKUP(A5,$A$21:$C$36,3,0),$F$21:$J$23,2,0)</f>
         <v>Pediatría</v>
       </c>
       <c r="D5" s="35">
         <v>42931</v>
       </c>
       <c r="E5" s="22" t="str">
-        <f>IF(OR(C5=$I$22,C5=$H$22),"ALTA",IF(C5=$F$22,"NORMAL","BAJA"))</f>
+        <f>IF(OR(C5="Pediatría",C5="Traumatología"),"ALTA",IF(C5="Oftalmología","NORMAL","BAJA"))</f>
         <v>ALTA</v>
       </c>
       <c r="F5" s="22">
-        <f>IF(AND(C5=$H$22,D5&gt;DATE(2017,7,10)),25,20)</f>
+        <f>IF(AND(C5="Traumatología",D5&gt;DATE(2017,7,10)),25,20)</f>
         <v>20</v>
       </c>
       <c r="G5" s="22" t="s">
@@ -7446,7 +7455,7 @@
         <v>42938</v>
       </c>
       <c r="I5" s="42">
-        <f>HLOOKUP(C5,$F$22:$J$23,2,0)*IF(E5="ALTA",1.2,1)</f>
+        <f>HLOOKUP(C5, $E$22:$J$23, 2, 0)*IF(E5="ALTA",1.2,1)</f>
         <v>156</v>
       </c>
     </row>
@@ -7455,22 +7464,22 @@
         <v>120</v>
       </c>
       <c r="B6" s="36" t="str">
-        <f t="shared" ref="B6:B17" si="0">VLOOKUP(A6,$A$22:$B$36,2,0)</f>
+        <f t="shared" ref="B6:B17" si="0">VLOOKUP(A6,$A$21:$C$36,2,0)</f>
         <v>Jerez, Marcos</v>
       </c>
       <c r="C6" s="36" t="str">
-        <f t="shared" ref="C6:C17" si="1">HLOOKUP(VLOOKUP(A6,$A$22:$C$36,3,0),$F$21:$J$23,2,0)</f>
+        <f t="shared" ref="C6:C17" si="1">HLOOKUP(VLOOKUP(A6,$A$21:$C$36,3,0),$F$21:$J$23,2,0)</f>
         <v>Traumatología</v>
       </c>
       <c r="D6" s="35">
         <v>42926</v>
       </c>
       <c r="E6" s="22" t="str">
-        <f t="shared" ref="E6:E17" si="2">IF(OR(C6=$I$22,C6=$H$22),"ALTA",IF(C6=$F$22,"NORMAL","BAJA"))</f>
+        <f t="shared" ref="E6:E17" si="2">IF(OR(C6="Pediatría",C6="Traumatología"),"ALTA",IF(C6="Oftalmología","NORMAL","BAJA"))</f>
         <v>ALTA</v>
       </c>
-      <c r="F6" s="22">
-        <f t="shared" ref="F6:F17" si="3">IF(AND(C6=$H$22,D6&gt;DATE(2017,7,10)),25,20)</f>
+      <c r="F6" s="132">
+        <f t="shared" ref="F6:F17" si="3">IF(AND(C6="Traumatología",D6&gt;DATE(2017,7,10)),25,20)</f>
         <v>20</v>
       </c>
       <c r="G6" s="22" t="s">
@@ -7481,7 +7490,7 @@
         <v>42933</v>
       </c>
       <c r="I6" s="42">
-        <f t="shared" ref="I6:I17" si="5">HLOOKUP(C6,$F$22:$J$23,2,0)*IF(E6="ALTA",1.2,1)</f>
+        <f t="shared" ref="I6:I17" si="5">HLOOKUP(C6, $E$22:$J$23, 2, 0)*IF(E6="ALTA",1.2,1)</f>
         <v>216</v>
       </c>
     </row>
@@ -8692,8 +8701,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8704,8 +8714,8 @@
   </sheetPr>
   <dimension ref="A1:M1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -8721,14 +8731,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9056,10 +9066,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="102"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="61">
         <f>SUMIF(C5:C18,"=Importado",D5:D18)</f>
         <v>70</v>
@@ -9070,10 +9080,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="104"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="63">
         <f>SUMIF(C5:C18,"=Nacional",D5:D18)</f>
         <v>68</v>
@@ -9085,11 +9095,11 @@
     </row>
     <row r="27" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="152" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="107"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
       <c r="D28" s="65" t="s">
         <v>51</v>
       </c>
@@ -9099,11 +9109,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="150" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="104"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="151"/>
       <c r="D29" s="66" t="s">
         <v>49</v>
       </c>
@@ -9114,11 +9124,11 @@
     </row>
     <row r="32" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="142" t="s">
         <v>241</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="69" t="s">
@@ -9200,8 +9210,8 @@
   </sheetPr>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9214,49 +9224,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="156" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="M1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="159" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
     </row>
@@ -9291,14 +9301,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="str">
-        <f>IF(ISBLANK(A7),"Ingrese código",VLOOKUP(A7,$A$27:$C$36,2,0))</f>
+        <f>IF(ISBLANK(A7),"Ingrese código",VLOOKUP(A7,$A$26:$C$36,2,0))</f>
         <v>ACER</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>175</v>
       </c>
       <c r="D7" s="17">
-        <f>IF(ISBLANK(A7), "", VLOOKUP(A7,$A$27:$C$36,3,0))</f>
+        <f>IF(ISBLANK(A7), "", VLOOKUP(A7,$A$26:$C$36,3,0))</f>
         <v>7120</v>
       </c>
       <c r="E7" s="28">
@@ -9322,14 +9332,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="17" t="str">
-        <f t="shared" ref="B8:B16" si="0">IF(ISBLANK(A8),"Ingrese código",VLOOKUP(A8,$A$27:$C$36,2,0))</f>
+        <f t="shared" ref="B8:B16" si="0">IF(ISBLANK(A8),"Ingrese código",VLOOKUP(A8,$A$26:$C$36,2,0))</f>
         <v>IBM</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="17">
-        <f t="shared" ref="D8:D16" si="1">IF(ISBLANK(A8), "", VLOOKUP(A8,$A$27:$C$36,3,0))</f>
+        <f t="shared" ref="D8:D16" si="1">IF(ISBLANK(A8), "", VLOOKUP(A8,$A$26:$C$36,3,0))</f>
         <v>4890</v>
       </c>
       <c r="E8" s="28">
@@ -9780,8 +9790,8 @@
       <c r="C30" s="80">
         <v>2600</v>
       </c>
-      <c r="E30" t="s">
-        <v>250</v>
+      <c r="E30" s="13" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -9794,8 +9804,8 @@
       <c r="C31" s="80">
         <v>4890</v>
       </c>
-      <c r="E31" t="s">
-        <v>249</v>
+      <c r="E31" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -9891,8 +9901,8 @@
   </sheetPr>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9907,430 +9917,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="A1" s="161" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="M1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="86" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="122">
+      <c r="C3" s="91">
         <f>HLOOKUP(B3,$B$24:$H$26,2,0)</f>
         <v>2766</v>
       </c>
-      <c r="D3" s="122">
+      <c r="D3" s="91">
         <f>HLOOKUP(B3,$B$24:$H$26,3,0)</f>
         <v>170</v>
       </c>
-      <c r="E3" s="122">
+      <c r="E3" s="91">
         <f>C3*$A$21</f>
         <v>235.11</v>
       </c>
-      <c r="F3" s="123">
+      <c r="F3" s="92">
         <v>8</v>
       </c>
-      <c r="G3" s="122">
-        <f>IF(F3&gt;$B$16, (F3 - $B$16) * $C$17, 0)</f>
+      <c r="G3" s="91">
+        <f>IF(F3&gt;$B$16, (F3 - $B$16) * $C$17, B17)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="122">
-        <f>C3 * VLOOKUP(H3,$E$16:$F$17,2,0)</f>
+      <c r="I3" s="91">
+        <f>C3 * VLOOKUP(H3,$E$15:$F$17,2,0)</f>
         <v>1106.4000000000001</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="91">
         <f>C3 + D3 + E3 + G3 - I3</f>
         <v>2064.71</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="91">
         <f t="shared" ref="C4:C12" si="0">HLOOKUP(B4,$B$24:$H$26,2,0)</f>
         <v>2096</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="91">
         <f t="shared" ref="D4:D12" si="1">HLOOKUP(B4,$B$24:$H$26,3,0)</f>
         <v>140</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="91">
         <f t="shared" ref="E4:E12" si="2">C4*$A$21</f>
         <v>178.16000000000003</v>
       </c>
-      <c r="F4" s="123">
+      <c r="F4" s="92">
         <v>4</v>
       </c>
-      <c r="G4" s="122">
-        <f t="shared" ref="G4:G12" si="3">IF(F4&gt;$B$16, (F4 - $B$16) * $C$17, 0)</f>
+      <c r="G4" s="91">
+        <f t="shared" ref="G4:G12" si="3">IF(F4&gt;$B$16, (F4 - $B$16) * $C$17, B18)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="H4" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="122">
-        <f t="shared" ref="I4:I12" si="4">C4 * VLOOKUP(H4,$E$16:$F$17,2,0)</f>
+      <c r="I4" s="91">
+        <f t="shared" ref="I4:I12" si="4">C4 * VLOOKUP(H4,$E$15:$F$17,2,0)</f>
         <v>838.40000000000009</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="91">
         <f t="shared" ref="J4:J12" si="5">C4 + D4 + E4 + G4 - I4</f>
         <v>1575.7599999999998</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="122">
+      <c r="C5" s="91">
         <f t="shared" si="0"/>
         <v>2496</v>
       </c>
-      <c r="D5" s="122">
+      <c r="D5" s="91">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="91">
         <f t="shared" si="2"/>
         <v>212.16000000000003</v>
       </c>
-      <c r="F5" s="123">
+      <c r="F5" s="92">
         <v>12</v>
       </c>
-      <c r="G5" s="122">
+      <c r="G5" s="91">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="122">
+      <c r="I5" s="91">
         <f t="shared" si="4"/>
         <v>998.40000000000009</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="91">
         <f t="shared" si="5"/>
         <v>1925.7599999999998</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="122">
+      <c r="C6" s="91">
         <f t="shared" si="0"/>
         <v>2809</v>
       </c>
-      <c r="D6" s="122">
+      <c r="D6" s="91">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="91">
         <f t="shared" si="2"/>
         <v>238.76500000000001</v>
       </c>
-      <c r="F6" s="123">
+      <c r="F6" s="92">
         <v>20</v>
       </c>
-      <c r="G6" s="122">
+      <c r="G6" s="91">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="122">
+      <c r="I6" s="91">
         <f t="shared" si="4"/>
         <v>1123.6000000000001</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="91">
         <f t="shared" si="5"/>
         <v>2362.165</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="122">
+      <c r="C7" s="91">
         <f t="shared" si="0"/>
         <v>2096</v>
       </c>
-      <c r="D7" s="122">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="91">
         <f t="shared" si="2"/>
         <v>178.16000000000003</v>
       </c>
-      <c r="F7" s="123">
+      <c r="F7" s="92">
         <v>10</v>
       </c>
-      <c r="G7" s="122">
+      <c r="G7" s="91">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="122">
+      <c r="J7" s="91">
         <f t="shared" si="5"/>
         <v>2462.16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="122">
+      <c r="C8" s="91">
         <f t="shared" si="0"/>
         <v>2809</v>
       </c>
-      <c r="D8" s="122">
+      <c r="D8" s="91">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E8" s="122">
+      <c r="E8" s="91">
         <f t="shared" si="2"/>
         <v>238.76500000000001</v>
       </c>
-      <c r="F8" s="123">
+      <c r="F8" s="92">
         <v>6</v>
       </c>
-      <c r="G8" s="122">
+      <c r="G8" s="91">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="122" t="s">
+      <c r="H8" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="122">
+      <c r="I8" s="91">
         <f t="shared" si="4"/>
         <v>1123.6000000000001</v>
       </c>
-      <c r="J8" s="122">
+      <c r="J8" s="91">
         <f t="shared" si="5"/>
         <v>2074.165</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="122">
+      <c r="C9" s="91">
         <f t="shared" si="0"/>
         <v>2664</v>
       </c>
-      <c r="D9" s="122">
+      <c r="D9" s="91">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="91">
         <f t="shared" si="2"/>
         <v>226.44000000000003</v>
       </c>
-      <c r="F9" s="123">
+      <c r="F9" s="92">
         <v>9</v>
       </c>
-      <c r="G9" s="122">
+      <c r="G9" s="91">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="H9" s="122" t="s">
+      <c r="H9" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="122">
+      <c r="I9" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J9" s="122">
+      <c r="J9" s="91">
         <f t="shared" si="5"/>
         <v>3044.44</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="91">
         <f t="shared" si="0"/>
         <v>1675</v>
       </c>
-      <c r="D10" s="122">
+      <c r="D10" s="91">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="91">
         <f t="shared" si="2"/>
         <v>142.375</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="92">
         <v>27</v>
       </c>
-      <c r="G10" s="122">
+      <c r="G10" s="91">
         <f t="shared" si="3"/>
         <v>456</v>
       </c>
-      <c r="H10" s="122" t="s">
+      <c r="H10" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="122">
+      <c r="I10" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J10" s="122">
+      <c r="J10" s="91">
         <f t="shared" si="5"/>
         <v>2403.375</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="122">
+      <c r="C11" s="91">
         <f t="shared" si="0"/>
         <v>2096</v>
       </c>
-      <c r="D11" s="122">
+      <c r="D11" s="91">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="91">
         <f t="shared" si="2"/>
         <v>178.16000000000003</v>
       </c>
-      <c r="F11" s="123">
+      <c r="F11" s="92">
         <v>30</v>
       </c>
-      <c r="G11" s="122">
+      <c r="G11" s="91">
         <f t="shared" si="3"/>
         <v>528</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="122">
+      <c r="I11" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J11" s="122">
+      <c r="J11" s="91">
         <f t="shared" si="5"/>
         <v>2942.16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="91">
         <f t="shared" si="0"/>
         <v>2809</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="91">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="91">
         <f t="shared" si="2"/>
         <v>238.76500000000001</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="92">
         <v>12</v>
       </c>
-      <c r="G12" s="122">
+      <c r="G12" s="91">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="H12" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="122">
+      <c r="I12" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J12" s="122">
+      <c r="J12" s="91">
         <f t="shared" si="5"/>
         <v>3293.7649999999999</v>
       </c>
@@ -10358,16 +10368,16 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="120"/>
+      <c r="F15" s="163"/>
       <c r="G15" s="5"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
@@ -10383,7 +10393,7 @@
       <c r="C16" s="11">
         <v>0</v>
       </c>
-      <c r="E16" s="121" t="s">
+      <c r="E16" s="90" t="s">
         <v>88</v>
       </c>
       <c r="F16" s="7">
@@ -10401,7 +10411,7 @@
       <c r="C17" s="11">
         <v>24</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="90" t="s">
         <v>89</v>
       </c>
       <c r="F17" s="7">
@@ -10422,7 +10432,7 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="89" t="s">
         <v>93</v>
       </c>
       <c r="H20" s="14"/>
@@ -10443,33 +10453,33 @@
       <c r="J22" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="E24" s="121" t="s">
+      <c r="E24" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="121" t="s">
+      <c r="F24" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="G24" s="121" t="s">
+      <c r="G24" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="121" t="s">
+      <c r="H24" s="90" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="89" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="12">
@@ -10495,7 +10505,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="89" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="12">
@@ -10551,8 +10561,8 @@
   </sheetPr>
   <dimension ref="A1:U2017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10569,152 +10579,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="129"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="168"/>
       <c r="M1" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="132"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="133"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="135"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="170"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="177"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="137">
+      <c r="E6" s="97">
         <f ca="1">TODAY()</f>
-        <v>43003</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="125" t="s">
+      <c r="F8" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="125" t="s">
+      <c r="H8" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="125" t="s">
+      <c r="I8" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="125" t="s">
+      <c r="J8" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="126" t="s">
+      <c r="K8" s="95" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="138">
+      <c r="A9" s="98">
         <v>2150</v>
       </c>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="140">
+      <c r="D9" s="100">
         <v>33106</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="141">
+      <c r="F9" s="101">
         <f>VLOOKUP(E9,$E$27:$F$34,2,0)</f>
         <v>21500</v>
       </c>
-      <c r="G9" s="142">
-        <f ca="1">DATEDIF(D9, $E$6, "Y")</f>
+      <c r="G9" s="102">
+        <f t="shared" ref="G9:G25" ca="1" si="0">DATEDIF(D9, $E$6, "Y")</f>
         <v>27</v>
       </c>
-      <c r="H9" s="141">
-        <f ca="1">F9 * INDEX($F$38:$J$38,1,MATCH(G9,$F$37:$J$37,1))</f>
+      <c r="H9" s="101">
+        <f ca="1">F9 * HLOOKUP(G9, $E$37:$J$38, 2, 2)</f>
         <v>4300</v>
       </c>
-      <c r="I9" s="139" t="s">
+      <c r="I9" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="143">
+      <c r="J9" s="103">
         <f ca="1">IF(AND(G9 &gt; 3, I9 = "S"), F9 * 0.05, 0)</f>
         <v>1075</v>
       </c>
-      <c r="K9" s="144">
+      <c r="K9" s="104">
         <f ca="1">F9 + H9 + J9</f>
         <v>26875</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="145">
+      <c r="A10" s="105">
         <v>1400</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -10723,22 +10733,22 @@
       <c r="C10" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="106">
         <v>31422</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>116</v>
       </c>
       <c r="F10" s="46">
-        <f t="shared" ref="F10:F25" si="0">VLOOKUP(E10,$E$27:$F$34,2,0)</f>
+        <f t="shared" ref="F10:F25" si="1">VLOOKUP(E10,$E$27:$F$34,2,0)</f>
         <v>21100</v>
       </c>
-      <c r="G10" s="147">
-        <f ca="1">DATEDIF(D10, $E$6, "Y")</f>
+      <c r="G10" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="H10" s="46">
-        <f t="shared" ref="H10:H25" ca="1" si="1">F10 * INDEX($F$38:$J$38,1,MATCH(G10,$F$37:$J$37,1))</f>
+        <f ca="1">F10 * HLOOKUP(G10, $E$37:$J$38, 2, 2)</f>
         <v>5275</v>
       </c>
       <c r="I10" s="14" t="s">
@@ -10748,13 +10758,13 @@
         <f t="shared" ref="J10:J25" ca="1" si="2">IF(AND(G10 &gt; 3, I10 = "S"), F10 * 0.05, 0)</f>
         <v>1055</v>
       </c>
-      <c r="K10" s="148">
+      <c r="K10" s="108">
         <f t="shared" ref="K10:K25" ca="1" si="3">F10 + H10 + J10</f>
         <v>27430</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="145">
+      <c r="A11" s="105">
         <v>1790</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -10763,22 +10773,22 @@
       <c r="C11" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="146">
+      <c r="D11" s="106">
         <v>33490</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15950</v>
       </c>
-      <c r="G11" s="147">
-        <f ca="1">DATEDIF(D11, $E$6, "Y")</f>
+      <c r="G11" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
       <c r="H11" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="H11:H24" ca="1" si="4">F11 * HLOOKUP(G11, $E$37:$J$38, 2, 2)</f>
         <v>3190</v>
       </c>
       <c r="I11" s="14" t="s">
@@ -10788,13 +10798,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>797.5</v>
       </c>
-      <c r="K11" s="148">
+      <c r="K11" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>19937.5</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="145">
+      <c r="A12" s="105">
         <v>1450</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -10803,22 +10813,22 @@
       <c r="C12" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="146">
+      <c r="D12" s="106">
         <v>33098</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>121</v>
       </c>
       <c r="F12" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15950</v>
       </c>
-      <c r="G12" s="147">
-        <f ca="1">DATEDIF(D12, $E$6, "Y")</f>
+      <c r="G12" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="H12" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3190</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -10828,13 +10838,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="148">
+      <c r="K12" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>19140</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="145">
+      <c r="A13" s="105">
         <v>1550</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -10843,22 +10853,22 @@
       <c r="C13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="146">
+      <c r="D13" s="106">
         <v>36863</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>116</v>
       </c>
       <c r="F13" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21100</v>
       </c>
-      <c r="G13" s="147">
-        <f ca="1">DATEDIF(D13, $E$6, "Y")</f>
+      <c r="G13" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="H13" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3165</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -10868,13 +10878,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="148">
+      <c r="K13" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>24265</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="145">
+      <c r="A14" s="105">
         <v>2030</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -10883,22 +10893,22 @@
       <c r="C14" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="146">
+      <c r="D14" s="106">
         <v>33770</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>137</v>
       </c>
       <c r="F14" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14780</v>
       </c>
-      <c r="G14" s="147">
-        <f ca="1">DATEDIF(D14, $E$6, "Y")</f>
+      <c r="G14" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="H14" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2956</v>
       </c>
       <c r="I14" s="14" t="s">
@@ -10908,13 +10918,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="148">
+      <c r="K14" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>17736</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="145">
+      <c r="A15" s="105">
         <v>1520</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -10923,22 +10933,22 @@
       <c r="C15" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="146">
+      <c r="D15" s="106">
         <v>38484</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>126</v>
       </c>
       <c r="F15" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18320</v>
       </c>
-      <c r="G15" s="147">
-        <f ca="1">DATEDIF(D15, $E$6, "Y")</f>
+      <c r="G15" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="H15" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2748</v>
       </c>
       <c r="I15" s="14" t="s">
@@ -10948,13 +10958,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>916</v>
       </c>
-      <c r="K15" s="148">
+      <c r="K15" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>21984</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="145">
+      <c r="A16" s="105">
         <v>1730</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -10963,22 +10973,22 @@
       <c r="C16" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="146">
+      <c r="D16" s="106">
         <v>31575</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="131" t="s">
         <v>130</v>
       </c>
       <c r="F16" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18500</v>
       </c>
-      <c r="G16" s="147">
-        <f ca="1">DATEDIF(D16, $E$6, "Y")</f>
+      <c r="G16" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="H16" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4625</v>
       </c>
       <c r="I16" s="14" t="s">
@@ -10988,13 +10998,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="148">
+      <c r="K16" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>23125</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="145">
+      <c r="A17" s="105">
         <v>1340</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -11003,22 +11013,22 @@
       <c r="C17" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="146">
+      <c r="D17" s="106">
         <v>34429</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42100</v>
       </c>
-      <c r="G17" s="147">
-        <f ca="1">DATEDIF(D17, $E$6, "Y")</f>
+      <c r="G17" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
       <c r="H17" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>8420</v>
       </c>
       <c r="I17" s="14" t="s">
@@ -11028,13 +11038,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>2105</v>
       </c>
-      <c r="K17" s="148">
+      <c r="K17" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>52625</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="145">
+      <c r="A18" s="105">
         <v>1850</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -11043,22 +11053,22 @@
       <c r="C18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="146">
+      <c r="D18" s="106">
         <v>28926</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>121</v>
       </c>
       <c r="F18" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15950</v>
       </c>
-      <c r="G18" s="147">
-        <f ca="1">DATEDIF(D18, $E$6, "Y")</f>
+      <c r="G18" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="H18" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3987.5</v>
       </c>
       <c r="I18" s="14" t="s">
@@ -11068,13 +11078,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>797.5</v>
       </c>
-      <c r="K18" s="148">
+      <c r="K18" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>20735</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="145">
+      <c r="A19" s="105">
         <v>2000</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -11083,22 +11093,22 @@
       <c r="C19" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="146">
+      <c r="D19" s="106">
         <v>33700</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>144</v>
       </c>
       <c r="F19" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21500</v>
       </c>
-      <c r="G19" s="147">
-        <f ca="1">DATEDIF(D19, $E$6, "Y")</f>
+      <c r="G19" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="H19" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4300</v>
       </c>
       <c r="I19" s="14" t="s">
@@ -11108,13 +11118,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>1075</v>
       </c>
-      <c r="K19" s="148">
+      <c r="K19" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>26875</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="145">
+      <c r="A20" s="105">
         <v>1820</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -11123,22 +11133,22 @@
       <c r="C20" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="146">
+      <c r="D20" s="106">
         <v>33553</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>137</v>
       </c>
       <c r="F20" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14780</v>
       </c>
-      <c r="G20" s="147">
-        <f ca="1">DATEDIF(D20, $E$6, "Y")</f>
+      <c r="G20" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="H20" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2956</v>
       </c>
       <c r="I20" s="14" t="s">
@@ -11148,13 +11158,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="148">
+      <c r="K20" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>17736</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="145">
+      <c r="A21" s="105">
         <v>1760</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -11163,22 +11173,22 @@
       <c r="C21" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="146">
+      <c r="D21" s="106">
         <v>40781</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>116</v>
       </c>
       <c r="F21" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21100</v>
       </c>
-      <c r="G21" s="147">
-        <f ca="1">DATEDIF(D21, $E$6, "Y")</f>
+      <c r="G21" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="H21" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2110</v>
       </c>
       <c r="I21" s="14" t="s">
@@ -11188,13 +11198,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>1055</v>
       </c>
-      <c r="K21" s="148">
+      <c r="K21" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>24265</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="145">
+      <c r="A22" s="105">
         <v>1880</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -11203,22 +11213,22 @@
       <c r="C22" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="146">
+      <c r="D22" s="106">
         <v>33567</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14780</v>
       </c>
-      <c r="G22" s="147">
-        <f ca="1">DATEDIF(D22, $E$6, "Y")</f>
+      <c r="G22" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="H22" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2956</v>
       </c>
       <c r="I22" s="14" t="s">
@@ -11228,13 +11238,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="148">
+      <c r="K22" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>17736</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="145">
+      <c r="A23" s="105">
         <v>1490</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -11243,22 +11253,22 @@
       <c r="C23" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="146">
+      <c r="D23" s="106">
         <v>40989</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15950</v>
       </c>
-      <c r="G23" s="147">
-        <f ca="1">DATEDIF(D23, $E$6, "Y")</f>
+      <c r="G23" s="107">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="H23" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1595</v>
       </c>
       <c r="I23" s="14" t="s">
@@ -11268,13 +11278,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="148">
+      <c r="K23" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>17545</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="145">
+      <c r="A24" s="105">
         <v>1370</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -11283,22 +11293,22 @@
       <c r="C24" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="146">
+      <c r="D24" s="106">
         <v>32784</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42100</v>
       </c>
-      <c r="G24" s="147">
-        <f ca="1">DATEDIF(D24, $E$6, "Y")</f>
-        <v>27</v>
+      <c r="G24" s="107">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
       </c>
       <c r="H24" s="46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>8420</v>
       </c>
       <c r="I24" s="14" t="s">
@@ -11308,7 +11318,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>2105</v>
       </c>
-      <c r="K24" s="148">
+      <c r="K24" s="108">
         <f t="shared" ca="1" si="3"/>
         <v>52625</v>
       </c>
@@ -11317,38 +11327,38 @@
       <c r="A25" s="66">
         <v>2001</v>
       </c>
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="110">
         <v>41289</v>
       </c>
-      <c r="E25" s="149" t="s">
+      <c r="E25" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="151">
-        <f t="shared" si="0"/>
+      <c r="F25" s="111">
+        <f t="shared" si="1"/>
         <v>21100</v>
       </c>
-      <c r="G25" s="152">
-        <f ca="1">DATEDIF(D25, $E$6, "Y")</f>
+      <c r="G25" s="112">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="H25" s="151">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H25" s="111">
+        <f ca="1">F25 * HLOOKUP(G25, $E$37:$J$38, 2, 2)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="149" t="s">
+      <c r="I25" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="153">
+      <c r="J25" s="113">
         <f t="shared" ca="1" si="2"/>
         <v>1055</v>
       </c>
-      <c r="K25" s="154">
+      <c r="K25" s="114">
         <f t="shared" ca="1" si="3"/>
         <v>22155</v>
       </c>
@@ -11362,139 +11372,139 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="160"/>
-      <c r="C27" s="165">
+      <c r="B27" s="179"/>
+      <c r="C27" s="119">
         <f>COUNTA(A9:A25)</f>
         <v>17</v>
       </c>
-      <c r="E27" s="166" t="s">
+      <c r="E27" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="167" t="s">
+      <c r="F27" s="121" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="180" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="162"/>
-      <c r="C28" s="165">
+      <c r="B28" s="181"/>
+      <c r="C28" s="119">
         <f>COUNTIF(E9:E25, "=EJECUTIVO")</f>
         <v>2</v>
       </c>
-      <c r="E28" s="155" t="s">
+      <c r="E28" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="157">
+      <c r="F28" s="117">
         <v>18500</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="165">
+      <c r="B29" s="181"/>
+      <c r="C29" s="119">
         <f>COUNTIF(A9:A25, "&gt;=2000")</f>
         <v>4</v>
       </c>
-      <c r="E29" s="155" t="s">
+      <c r="E29" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="157">
+      <c r="F29" s="117">
         <v>42100</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="179">
+      <c r="B30" s="165"/>
+      <c r="C30" s="130">
         <f ca="1">SUMIF(E9:E25, "=VENTAS", K9:K25)</f>
         <v>77357.5</v>
       </c>
-      <c r="E30" s="155" t="s">
+      <c r="E30" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="157">
+      <c r="F30" s="117">
         <v>21100</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E31" s="155" t="s">
+      <c r="E31" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="157">
+      <c r="F31" s="117">
         <v>21500</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E32" s="155" t="s">
+      <c r="E32" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="157">
+      <c r="F32" s="117">
         <v>18320</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E33" s="155" t="s">
+      <c r="E33" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="157">
+      <c r="F33" s="117">
         <v>14780</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="156" t="s">
+      <c r="E34" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="158">
+      <c r="F34" s="118">
         <v>15950</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="171" t="s">
+      <c r="E37" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="172">
+      <c r="F37" s="123">
         <v>0</v>
       </c>
-      <c r="G37" s="173">
+      <c r="G37" s="124">
         <v>5</v>
       </c>
-      <c r="H37" s="173">
+      <c r="H37" s="124">
         <v>10</v>
       </c>
-      <c r="I37" s="173">
+      <c r="I37" s="124">
         <v>20</v>
       </c>
-      <c r="J37" s="174">
+      <c r="J37" s="125">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="175" t="s">
-        <v>252</v>
-      </c>
-      <c r="F38" s="176">
+      <c r="E38" s="126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="127">
         <v>0</v>
       </c>
-      <c r="G38" s="177">
+      <c r="G38" s="128">
         <v>0.1</v>
       </c>
-      <c r="H38" s="177">
+      <c r="H38" s="128">
         <v>0.15</v>
       </c>
-      <c r="I38" s="177">
+      <c r="I38" s="128">
         <v>0.2</v>
       </c>
-      <c r="J38" s="178">
+      <c r="J38" s="129">
         <v>0.25</v>
       </c>
     </row>
@@ -11504,7 +11514,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
@@ -11522,12 +11532,12 @@
     <sortCondition ref="C9:C26"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -11536,7 +11546,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>